--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Masterarbeit\Matlab\Experiment\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE00A90-FDEC-46BC-AA48-60FCE6A1C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1E185-E59C-4616-A2EF-4DB23648B121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="14952" windowHeight="12318" xr2:uid="{09A25906-6D51-4A9A-956F-A8F44D6D6D0D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{09A25906-6D51-4A9A-956F-A8F44D6D6D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist das Objekt echt? </t>
-  </si>
-  <si>
     <t>Ist das Objekt eine Fälschung?</t>
   </si>
   <si>
@@ -40,6 +37,81 @@
   </si>
   <si>
     <t xml:space="preserve">Hast du mir ein fairen Preis genannt? </t>
+  </si>
+  <si>
+    <t>Ist der Preis für dieses Objekt angemessen?</t>
+  </si>
+  <si>
+    <t>Gibt es sichtbare Schäden am Objekt?</t>
+  </si>
+  <si>
+    <t>Ist das Objekt original oder restauriert?</t>
+  </si>
+  <si>
+    <t>Entspricht das Objekt der Beschreibung?</t>
+  </si>
+  <si>
+    <t>Ist die Herkunft des Objekts bekannt?</t>
+  </si>
+  <si>
+    <t>Ist der geforderte Preis marktüblich?</t>
+  </si>
+  <si>
+    <t>Ist das Objekt selten?</t>
+  </si>
+  <si>
+    <t>Besteht ein Risiko, dass das Objekt gefälscht ist?</t>
+  </si>
+  <si>
+    <t>Ist das Alter des Objekts glaubwürdig?</t>
+  </si>
+  <si>
+    <t>Ist das Angebot ein guter Deal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handelt es sich um ein Originales Kunnstwerk? </t>
+  </si>
+  <si>
+    <t>Hat es ein männlicher Künster gemalt?</t>
+  </si>
+  <si>
+    <t>Hast du mir einen ehrlichen Preis genannt?</t>
+  </si>
+  <si>
+    <t>Profitieren wir beide davon, wenn ich das Objekt kaufen?</t>
+  </si>
+  <si>
+    <t>Werde ich es für einen guten Preis weiterverkaufen können?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wurde das Gemälde vor dem Jahr 2000 gefertigt? </t>
+  </si>
+  <si>
+    <t>Kommt das Objekt von einer Privatsammlung?</t>
+  </si>
+  <si>
+    <t>Hat es eine weibliche Künstlerin gemalt?</t>
+  </si>
+  <si>
+    <t>Wurde es auf eine Leinwand gemalt?</t>
+  </si>
+  <si>
+    <t>Wurde es mit Aquarell gemalt?</t>
+  </si>
+  <si>
+    <t>Wurde es mit Tinte gemalt?</t>
+  </si>
+  <si>
+    <t>Wurde es mit Acryl gemalt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wurde es mit Ölfarben gemalt? </t>
+  </si>
+  <si>
+    <t>Ist der/ die Künstler/in aus Deutschland?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der/ die Künstler/in aus dem Ausland? </t>
   </si>
 </sst>
 </file>
@@ -391,13 +463,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417FB89A-D41F-478C-AD8E-1A163055DD82}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="57.89453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -406,22 +481,142 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
